--- a/Day25/Normalization.xlsx
+++ b/Day25/Normalization.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wiley DI004\Explanation\Day25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0B12B0-870A-4149-9E6C-F08004D43F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1796F303-CFA2-43EE-8A50-9EEB4C18FDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{FE6D679C-3A8B-49B1-A8E2-8D2285EE474F}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{FE6D679C-3A8B-49B1-A8E2-8D2285EE474F}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem of Not Normalized db" sheetId="1" r:id="rId1"/>
     <sheet name="1st NF" sheetId="2" r:id="rId2"/>
+    <sheet name="2nd NF" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
   <si>
     <t>Student</t>
   </si>
@@ -232,13 +233,37 @@
   </si>
   <si>
     <t>Each Table cell should contain a single value</t>
+  </si>
+  <si>
+    <t>1. Fulfil the requirements of first normal form</t>
+  </si>
+  <si>
+    <t>2. Each non-key attribute must be functionally dependent on the primary key</t>
+  </si>
+  <si>
+    <t>2 NF Rule</t>
+  </si>
+  <si>
+    <t>Subject(Subject_Id,Subject Name)</t>
+  </si>
+  <si>
+    <t>Teacher(Teacher_Id,Teacher Name, address)</t>
+  </si>
+  <si>
+    <t>Course(Course ID,CourseName)</t>
+  </si>
+  <si>
+    <t>Student(studentId,name,Date of Birth,feepaid,address,teacher_Id,Course ID)</t>
+  </si>
+  <si>
+    <t>StudentSubject(StudentId,SubjectID)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +304,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -300,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -323,11 +362,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -345,6 +393,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,8 +942,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -933,6 +996,9 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="39" x14ac:dyDescent="0.75">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
@@ -964,6 +1030,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="39" x14ac:dyDescent="0.75">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
@@ -997,6 +1066,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="39" x14ac:dyDescent="0.75">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
@@ -1024,6 +1096,9 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="39" x14ac:dyDescent="0.75">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>45</v>
       </c>
@@ -1075,4 +1150,267 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0147C7B4-575B-4F60-BB48-8078F4CB4FC0}">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="6" max="6" width="32.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="5">
+        <v>36725</v>
+      </c>
+      <c r="J3" s="5">
+        <v>33454</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="52" x14ac:dyDescent="0.75">
+      <c r="G4" s="10">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="5">
+        <v>37025</v>
+      </c>
+      <c r="J4" s="5">
+        <v>33857</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="65" x14ac:dyDescent="0.75">
+      <c r="A5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="10">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="5">
+        <v>36925</v>
+      </c>
+      <c r="J5" s="5">
+        <v>33251</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="65" x14ac:dyDescent="0.75">
+      <c r="A6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="10">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="5">
+        <v>37375</v>
+      </c>
+      <c r="J6" s="5">
+        <v>33719</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Day25/Normalization.xlsx
+++ b/Day25/Normalization.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wiley DI004\Explanation\Day25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1796F303-CFA2-43EE-8A50-9EEB4C18FDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF44835-C8A6-47C2-A7CB-9D8EA7597B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{FE6D679C-3A8B-49B1-A8E2-8D2285EE474F}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="3" xr2:uid="{FE6D679C-3A8B-49B1-A8E2-8D2285EE474F}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem of Not Normalized db" sheetId="1" r:id="rId1"/>
     <sheet name="1st NF" sheetId="2" r:id="rId2"/>
     <sheet name="2nd NF" sheetId="3" r:id="rId3"/>
+    <sheet name="3rd NF" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="93">
   <si>
     <t>Student</t>
   </si>
@@ -257,13 +258,73 @@
   </si>
   <si>
     <t>StudentSubject(StudentId,SubjectID)</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>1. Be in 2NF</t>
+  </si>
+  <si>
+    <t>2. Has no transitive functional dependencies</t>
+  </si>
+  <si>
+    <t>A transitive functional dependency is when changing a non-key column, might cause any of the other non-key columns to change</t>
+  </si>
+  <si>
+    <t>Membership id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name </t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>Juliana Nocchi</t>
+  </si>
+  <si>
+    <t>Hodan Hassan</t>
+  </si>
+  <si>
+    <t>Jack Jones</t>
+  </si>
+  <si>
+    <t>Xyz</t>
+  </si>
+  <si>
+    <t>MNO</t>
+  </si>
+  <si>
+    <t>Pqr</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Paarth Batra</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Salutation ID</t>
+  </si>
+  <si>
+    <t>Salutation Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +375,21 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -372,10 +448,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -393,14 +470,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -408,8 +485,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -996,7 +1080,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="39" x14ac:dyDescent="0.75">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1030,7 +1114,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="39" x14ac:dyDescent="0.75">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1066,7 +1150,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="39" x14ac:dyDescent="0.75">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1096,7 +1180,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="39" x14ac:dyDescent="0.75">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1156,7 +1240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0147C7B4-575B-4F60-BB48-8078F4CB4FC0}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1171,14 +1255,14 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="3" t="s">
         <v>59</v>
       </c>
@@ -1217,15 +1301,15 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="9">
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -1259,7 +1343,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="52" x14ac:dyDescent="0.75">
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -1303,7 +1387,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>3</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -1341,7 +1425,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>4</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -1371,34 +1455,34 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.75">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.75">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.75">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1413,4 +1497,222 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F74047-4F39-4968-9FB3-3CCB262173F6}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="7" max="7" width="13.04296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.2265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="5" spans="1:14" ht="48.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.75">
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" display="https://www.guru99.com/dbms-functional-dependency.html" xr:uid="{0E896C66-7687-471F-9863-51425471346A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>